--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,6 +49,9 @@
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>loves</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -76,156 +82,150 @@
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>amazing</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>best</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>best</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>salad</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>salad</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>cheese</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>rice</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>cooks</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>cream</t>
+    <t>day</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>gr</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
@@ -235,13 +235,13 @@
     <t>new</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>exactly</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>big</t>
   </si>
   <si>
     <t>every</t>
@@ -250,55 +250,46 @@
     <t>hot</t>
   </si>
   <si>
-    <t>little</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>makes</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>quality</t>
+    <t>really</t>
   </si>
   <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>really</t>
   </si>
   <si>
     <t>time</t>
@@ -665,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,10 +664,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,13 +725,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -752,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -776,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -784,13 +775,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6296296296296297</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -802,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -826,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -834,37 +825,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>21</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.890625</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -876,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -884,13 +875,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.310077519379845</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -902,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8529411764705882</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>551</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>551</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -926,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -934,13 +925,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2307692307692308</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -952,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8260869565217391</v>
+        <v>0.8560371517027864</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>553</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>553</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -976,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -984,37 +975,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2222222222222222</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>61</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>77</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K8">
-        <v>0.7532467532467533</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L8">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1026,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1034,13 +1025,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1081081081081081</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1052,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.7241379310344828</v>
+        <v>0.7922077922077922</v>
       </c>
       <c r="L9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1076,21 +1067,45 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.0918918918918919</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>168</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10">
-        <v>0.7045454545454546</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1102,21 +1117,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K11">
-        <v>0.7012987012987013</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="L11">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1128,21 +1143,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.6915254237288135</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L12">
-        <v>204</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>204</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1154,21 +1169,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.6666666666666666</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,21 +1195,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.6575342465753424</v>
+        <v>0.6508474576271186</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="M14">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1206,21 +1221,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.6491228070175439</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1232,21 +1247,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6338028169014085</v>
+        <v>0.6260032102728732</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>780</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>780</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1258,21 +1273,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6292134831460674</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L17">
-        <v>784</v>
+        <v>106</v>
       </c>
       <c r="M17">
-        <v>784</v>
+        <v>106</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1284,21 +1299,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>462</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6114285714285714</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L18">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1310,21 +1325,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6111111111111112</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1336,21 +1351,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.5857142857142857</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1362,21 +1377,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21">
+        <v>0.5396825396825397</v>
+      </c>
+      <c r="L21">
         <v>34</v>
       </c>
-      <c r="K21">
-        <v>0.5625</v>
-      </c>
-      <c r="L21">
-        <v>36</v>
-      </c>
       <c r="M21">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1388,21 +1403,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.5384615384615384</v>
+        <v>0.53125</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1419,16 +1434,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.5096153846153846</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L23">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1440,21 +1455,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5060240963855421</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1466,21 +1481,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5037593984962406</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="L25">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1492,21 +1507,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="L26">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M26">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1518,12 +1533,12 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K27">
         <v>0.5</v>
@@ -1549,16 +1564,16 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.4910179640718563</v>
+        <v>0.4850299401197605</v>
       </c>
       <c r="L28">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M28">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1570,21 +1585,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.4786324786324787</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L29">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1596,21 +1611,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.47</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="L30">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1622,21 +1637,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4571428571428571</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1648,21 +1663,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.4426229508196721</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1674,21 +1689,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4126984126984127</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1700,21 +1715,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>37</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.4081632653061225</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1726,12 +1741,12 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
         <v>0.3725490196078431</v>
@@ -1757,16 +1772,16 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.3703703703703703</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1778,21 +1793,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.3554216867469879</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L37">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="M37">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1804,21 +1819,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.3357843137254902</v>
+        <v>0.35</v>
       </c>
       <c r="L38">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="M38">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1830,21 +1845,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>271</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.3268482490272374</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L39">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1856,21 +1871,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>173</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K40">
-        <v>0.3230769230769231</v>
+        <v>0.3357843137254902</v>
       </c>
       <c r="L40">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1882,21 +1897,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>44</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K41">
-        <v>0.3157894736842105</v>
+        <v>0.3229571984435798</v>
       </c>
       <c r="L41">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="M41">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1908,21 +1923,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>91</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K42">
-        <v>0.2894736842105263</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1934,21 +1949,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K43">
-        <v>0.2794520547945206</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L43">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1960,21 +1975,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>526</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K44">
-        <v>0.2792792792792793</v>
+        <v>0.2835616438356164</v>
       </c>
       <c r="L44">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="M44">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1986,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>80</v>
+        <v>523</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K45">
-        <v>0.2647058823529412</v>
+        <v>0.2741935483870968</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2012,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K46">
-        <v>0.2631578947368421</v>
+        <v>0.247578040904198</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2038,21 +2053,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>56</v>
+        <v>699</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K47">
-        <v>0.2517985611510791</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="L47">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M47">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2064,21 +2079,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K48">
-        <v>0.25</v>
+        <v>0.2376237623762376</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2090,21 +2105,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K49">
-        <v>0.2419354838709677</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2116,21 +2131,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K50">
-        <v>0.231974921630094</v>
+        <v>0.2344497607655502</v>
       </c>
       <c r="L50">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="M50">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2142,21 +2157,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>245</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K51">
-        <v>0.2277227722772277</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="L51">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M51">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2168,21 +2183,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K52">
-        <v>0.2260495156081808</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="L52">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="M52">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2194,21 +2209,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>719</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K53">
-        <v>0.2222222222222222</v>
+        <v>0.2086330935251799</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M53">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2220,21 +2235,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K54">
-        <v>0.2185430463576159</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L54">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M54">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2246,21 +2261,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K55">
-        <v>0.1904761904761905</v>
+        <v>0.1880877742946709</v>
       </c>
       <c r="L55">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="M55">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2272,21 +2287,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>68</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K56">
-        <v>0.1818181818181818</v>
+        <v>0.1827814569536424</v>
       </c>
       <c r="L56">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="M56">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2298,21 +2313,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>171</v>
+        <v>617</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K57">
-        <v>0.1814569536423841</v>
+        <v>0.1585677749360614</v>
       </c>
       <c r="L57">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M57">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2324,21 +2339,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>618</v>
+        <v>658</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K58">
-        <v>0.1585677749360614</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="L58">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="M58">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2350,21 +2365,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>658</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K59">
-        <v>0.1543624161073825</v>
+        <v>0.1531531531531531</v>
       </c>
       <c r="L59">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M59">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2376,21 +2391,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>126</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K60">
-        <v>0.1523809523809524</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="L60">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M60">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2402,21 +2417,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>89</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K61">
-        <v>0.1475409836065574</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2428,21 +2443,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>104</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K62">
-        <v>0.1327433628318584</v>
+        <v>0.1158536585365854</v>
       </c>
       <c r="L62">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2454,21 +2469,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>98</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K63">
-        <v>0.1280487804878049</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="L63">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M63">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2480,21 +2495,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>143</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K64">
-        <v>0.1134453781512605</v>
+        <v>0.1073446327683616</v>
       </c>
       <c r="L64">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M64">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2506,21 +2521,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>211</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K65">
-        <v>0.1099656357388316</v>
+        <v>0.1051212938005391</v>
       </c>
       <c r="L65">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M65">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2532,21 +2547,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>259</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K66">
-        <v>0.103448275862069</v>
+        <v>0.09545454545454546</v>
       </c>
       <c r="L66">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M66">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2558,21 +2573,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>182</v>
+        <v>398</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K67">
-        <v>0.103030303030303</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="L67">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M67">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2589,42 +2604,42 @@
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K68">
-        <v>0.1027027027027027</v>
+        <v>0.08759124087591241</v>
       </c>
       <c r="L68">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M68">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N68">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>332</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K69">
-        <v>0.1021897810218978</v>
+        <v>0.08374384236453201</v>
       </c>
       <c r="L69">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M69">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2636,21 +2651,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>369</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K70">
-        <v>0.1016949152542373</v>
+        <v>0.08118081180811808</v>
       </c>
       <c r="L70">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M70">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2662,21 +2677,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>159</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K71">
-        <v>0.1008771929824561</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="L71">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M71">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2688,21 +2703,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K72">
-        <v>0.0996309963099631</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L72">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M72">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2714,21 +2729,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K73">
-        <v>0.09772727272727273</v>
+        <v>0.06443914081145585</v>
       </c>
       <c r="L73">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M73">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2740,21 +2755,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K74">
-        <v>0.09615384615384616</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="L74">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M74">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2766,47 +2781,47 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>141</v>
+        <v>372</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K75">
-        <v>0.09202453987730061</v>
+        <v>0.054519368723099</v>
       </c>
       <c r="L75">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M75">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>148</v>
+        <v>659</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K76">
-        <v>0.08148148148148149</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="L76">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M76">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2818,21 +2833,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>248</v>
+        <v>348</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K77">
-        <v>0.06599713055954089</v>
+        <v>0.0457516339869281</v>
       </c>
       <c r="L77">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M77">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N77">
         <v>0.98</v>
@@ -2844,21 +2859,21 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>651</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K78">
-        <v>0.06443914081145585</v>
+        <v>0.03690036900369004</v>
       </c>
       <c r="L78">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M78">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2870,137 +2885,33 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>392</v>
+        <v>522</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K79">
-        <v>0.05503731343283582</v>
+        <v>0.02335640138408305</v>
       </c>
       <c r="L79">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="M79">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="80" spans="10:17">
-      <c r="J80" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K80">
-        <v>0.05089058524173028</v>
-      </c>
-      <c r="L80">
-        <v>20</v>
-      </c>
-      <c r="M80">
-        <v>21</v>
-      </c>
-      <c r="N80">
-        <v>0.95</v>
-      </c>
-      <c r="O80">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P80" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="81" spans="10:17">
-      <c r="J81" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K81">
-        <v>0.04918032786885246</v>
-      </c>
-      <c r="L81">
-        <v>18</v>
-      </c>
-      <c r="M81">
-        <v>18</v>
-      </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="82" spans="10:17">
-      <c r="J82" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K82">
-        <v>0.04243542435424354</v>
-      </c>
-      <c r="L82">
-        <v>23</v>
-      </c>
-      <c r="M82">
-        <v>23</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="83" spans="10:17">
-      <c r="J83" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K83">
-        <v>0.02852203975799482</v>
-      </c>
-      <c r="L83">
-        <v>33</v>
-      </c>
-      <c r="M83">
-        <v>33</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>1124</v>
+        <v>1129</v>
       </c>
     </row>
   </sheetData>
